--- a/biology/Médecine/Bibliographie_sur_les_psychotropes/Bibliographie_sur_les_psychotropes.xlsx
+++ b/biology/Médecine/Bibliographie_sur_les_psychotropes/Bibliographie_sur_les_psychotropes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bibliographie sur les psychotropes propose une liste non exhaustive de livres sur les psychotropes.
 </t>
@@ -513,10 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publications en série d'ordre général
-ASUD-Journal, Association ASUD, 1991–2021 (présentation en ligne)bimensuel français d'auto-support et de prévention pour les usagers de drogue
-Recueils généraux
-Amine Benyamina, Le cannabis et les autres drogues, Paris, Solar, 2005, 197 p. (ISBN 2-263-03904-X)
+          <t>Publications en série d'ordre général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ASUD-Journal, Association ASUD, 1991–2021 (présentation en ligne)bimensuel français d'auto-support et de prévention pour les usagers de drogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bibliographie_sur_les_psychotropes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_psychotropes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Recueils généraux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amine Benyamina, Le cannabis et les autres drogues, Paris, Solar, 2005, 197 p. (ISBN 2-263-03904-X)
 Michèle Bilimoff, Enquête sur les plantes magiques, Rennes, Ouest-France, coll. « Mémoires », 2003, 127 p. (ISBN 2-7373-3109-9)
 Collectif FTP, Petit dico des drogues, Paris, édition L'esprit frappeur, 1997, 105 p. (ISBN 2-84405-002-6)
 David-T Courtwright (auteur), Catherine Ferland (traduction), De passion à poison : Les drogues et la construction du monde moderne, PU Laval, coll. « Paradis artificiels », 19 juin 2008, 320 p. (ISBN 978-2-7637-8572-1)
@@ -531,31 +582,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Hallucinogènes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Antonio Escohotado (trad. de l'espagnol), Histoire générale des drogues : Tome 1, Barcelone, édition L'esprit frappeur, 2003, 538 p. (ISBN 2-84405-203-7)
 Richard Evans Schultes (trad. de l'anglais), Un panorama des hallucinogènes du nouveau monde, Paris, édition L'esprit frappeur, 2000, 116 p. (ISBN 2-84405-098-0)
@@ -565,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Témoignages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Par ordre alphabétique
 M. Aguéev, Roman avec cocaïne, trad. du russe par Lydia Chweitzer, préf. Lydia Chweitzer, Paris, Éditions Belfond, coll. « 10/18 » (no 2959), 2014 (1re éd. 1983), 232 p.  (ISBN 978-2264027313)
@@ -615,31 +670,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Fictions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>René Barjavel, Les Chemins de Katmandou, Pocket, coll. « Pocket », 1er mars 2002, 374 p. (ISBN 978-2-266-15409-3)
 Vladimir Bartol (trad. du slovène), Alamut, Lonrai, Phébus, coll. « libretto », 1998, 582 p. (ISBN 2-85940-518-6)
@@ -652,31 +709,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Bandes dessinées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Charles Saucisse, Marre de la Drogue, 2005 (lire en ligne)
 Gilbert Shelton et Dave Sheridan, Les Fabuleux Freak Brothers, intégrale (tomes 1-9), Tête-Rock Underground, coll. « Les stups », 1992-2006, 40 p. (ISBN 978-2-9506826-0-4)
@@ -684,31 +743,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bibliographie_sur_les_psychotropes</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Healy, David. 2002. The Creation of Psychopharmacology. Cambridge  MA: Harvard University Press.
 Lakoff, Andrew. 2008. La raison pharmaceutique. Paris: Les Empêcheurs de penser en rond.
